--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456701.180093049</v>
+        <v>1452254.757244449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30208138.79954547</v>
+        <v>30208138.79954546</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938638</v>
+        <v>7134934.855938642</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>139.579845676141</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>232.8692350410417</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
         <v>274.1005558094662</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T11" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>85.81706634455517</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T13" t="n">
         <v>237.0153716433569</v>
@@ -1587,7 +1587,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
-        <v>228.43014929713</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>149.4079341344092</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>93.20032920080946</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>103.8285378796265</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>200.8965320799015</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>156.6944718187502</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
-        <v>150.2521645955364</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>11.08770042852516</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>62.50326220432377</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
         <v>237.0153716433569</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>57.46828772663131</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>385.0059019213989</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>85.70738533786721</v>
       </c>
       <c r="E22" t="n">
-        <v>68.96258057630986</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
         <v>237.0153716433569</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>110.9053461119326</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2326,16 +2326,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.639481716389107</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.89030801863862</v>
       </c>
       <c r="E25" t="n">
-        <v>62.50326220432332</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
         <v>237.0153716433569</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>404.5949445692342</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>182.121808497221</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>10.52826380421621</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>68.12931533774911</v>
       </c>
       <c r="T28" t="n">
         <v>237.0153716433569</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>209.7936223152558</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>239.1881365403133</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>73.83602903894744</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.48812915351979</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
         <v>277.3329370021073</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1005558094662</v>
+        <v>164.3052729193481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
-        <v>150.8077456646893</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.12931533774911</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T34" t="n">
         <v>237.0153716433569</v>
@@ -3249,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>54.76930524478341</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>385.0816578556438</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>108.7040606172162</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>3.31051174808575</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>138.0953960043016</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.0661295110832</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
         <v>274.1005558094662</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>156.6944718187507</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
-        <v>268.4483962380934</v>
+        <v>192.8971658567893</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>122.5952363476683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5161396027302</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.26258275451</v>
+        <v>23.12198485521878</v>
       </c>
       <c r="I43" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.5650864830671</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>241.1103982900194</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
         <v>274.1005558094662</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309217</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
         <v>209.8302460968812</v>
@@ -4036,16 +4036,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>133.2430315984217</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>137.7705989889418</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>68.12931533774956</v>
+        <v>68.12931533774866</v>
       </c>
       <c r="T46" t="n">
         <v>237.0153716433569</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>555.9240055530649</v>
+        <v>1714.174266322836</v>
       </c>
       <c r="C11" t="n">
-        <v>555.9240055530649</v>
+        <v>1287.273536336136</v>
       </c>
       <c r="D11" t="n">
-        <v>555.9240055530649</v>
+        <v>863.9809155211367</v>
       </c>
       <c r="E11" t="n">
-        <v>555.9240055530649</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F11" t="n">
-        <v>555.9240055530649</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G11" t="n">
         <v>320.7025560166592</v>
@@ -5041,19 +5041,19 @@
         <v>87.10761271643833</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
         <v>1667.064768900565</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T11" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U11" t="n">
-        <v>1721.524768958721</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V11" t="n">
-        <v>1364.035354084971</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W11" t="n">
-        <v>967.6440043853177</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X11" t="n">
-        <v>555.9240055530649</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="Y11" t="n">
-        <v>555.9240055530649</v>
+        <v>2134.022630614366</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J12" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K12" t="n">
-        <v>320.938184101358</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L12" t="n">
-        <v>532.1149872941039</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M12" t="n">
-        <v>781.693847131716</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N12" t="n">
-        <v>1040.219721542963</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O12" t="n">
-        <v>1273.109672780256</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P12" t="n">
         <v>1552.441323867022</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.2849332297275</v>
+        <v>302.3789873482492</v>
       </c>
       <c r="C13" t="n">
-        <v>918.2849332297275</v>
+        <v>302.3789873482492</v>
       </c>
       <c r="D13" t="n">
-        <v>754.9681603564982</v>
+        <v>302.3789873482492</v>
       </c>
       <c r="E13" t="n">
-        <v>588.7599545093517</v>
+        <v>302.3789873482492</v>
       </c>
       <c r="F13" t="n">
-        <v>416.8981802839122</v>
+        <v>130.5172131228096</v>
       </c>
       <c r="G13" t="n">
-        <v>251.5609700705797</v>
+        <v>130.5172131228096</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I13" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J13" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K13" t="n">
-        <v>496.3180254984903</v>
+        <v>418.3963088502694</v>
       </c>
       <c r="L13" t="n">
-        <v>834.5126341488234</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M13" t="n">
-        <v>1367.005798308134</v>
+        <v>1026.065277288251</v>
       </c>
       <c r="N13" t="n">
-        <v>1484.411782129532</v>
+        <v>1143.47126110965</v>
       </c>
       <c r="O13" t="n">
-        <v>1589.554333948619</v>
+        <v>1626.31613723194</v>
       </c>
       <c r="P13" t="n">
-        <v>1989.180585230913</v>
+        <v>2025.942388514233</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T13" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U13" t="n">
-        <v>1666.438758153965</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V13" t="n">
-        <v>1435.701233611409</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W13" t="n">
-        <v>1160.848829783922</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X13" t="n">
-        <v>918.2849332297275</v>
+        <v>718.8877243705728</v>
       </c>
       <c r="Y13" t="n">
-        <v>918.2849332297275</v>
+        <v>492.5449560603148</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620.7273527626834</v>
+        <v>1149.891902400623</v>
       </c>
       <c r="C14" t="n">
-        <v>620.7273527626834</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D14" t="n">
-        <v>620.7273527626834</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E14" t="n">
-        <v>194.7504129105409</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F14" t="n">
-        <v>194.7504129105409</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G14" t="n">
-        <v>194.7504129105409</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037496</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T14" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U14" t="n">
-        <v>2191.665386213449</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V14" t="n">
-        <v>1834.175971339699</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="W14" t="n">
-        <v>1437.784621640046</v>
+        <v>1569.740266692153</v>
       </c>
       <c r="X14" t="n">
-        <v>1026.064622807793</v>
+        <v>1569.740266692153</v>
       </c>
       <c r="Y14" t="n">
-        <v>620.7273527626834</v>
+        <v>1569.740266692153</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K15" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L15" t="n">
-        <v>508.6576814496921</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M15" t="n">
-        <v>758.2365412873041</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O15" t="n">
-        <v>1249.652366935845</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P15" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R15" t="n">
         <v>1815.956238873899</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.257496350811</v>
+        <v>492.5449560603143</v>
       </c>
       <c r="C16" t="n">
-        <v>918.2849332297275</v>
+        <v>320.5723929392303</v>
       </c>
       <c r="D16" t="n">
-        <v>754.9681603564982</v>
+        <v>320.5723929392303</v>
       </c>
       <c r="E16" t="n">
-        <v>588.7599545093517</v>
+        <v>320.5723929392303</v>
       </c>
       <c r="F16" t="n">
-        <v>416.8981802839122</v>
+        <v>148.7106187137908</v>
       </c>
       <c r="G16" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270248</v>
+        <v>87.13587819270246</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3963088502695</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L16" t="n">
-        <v>530.718700000598</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M16" t="n">
-        <v>742.6440485409494</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N16" t="n">
-        <v>1258.082955204228</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O16" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P16" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
@@ -5463,25 +5463,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2191.665386213449</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T16" t="n">
-        <v>1952.255919907028</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U16" t="n">
-        <v>1952.255919907028</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V16" t="n">
-        <v>1952.255919907028</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.33012992733</v>
+        <v>961.4516209247672</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.766233373135</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.423465062877</v>
+        <v>492.5449560603143</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>468.9574895348688</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="C17" t="n">
-        <v>468.9574895348688</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="D17" t="n">
-        <v>468.9574895348688</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E17" t="n">
-        <v>468.9574895348688</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F17" t="n">
-        <v>43.83330772426899</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I17" t="n">
         <v>87.10761271643833</v>
@@ -5518,10 +5518,10 @@
         <v>228.5477172037497</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M17" t="n">
         <v>1043.801082832444</v>
@@ -5533,34 +5533,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T17" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U17" t="n">
-        <v>2039.895522985635</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V17" t="n">
-        <v>1682.406108111884</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W17" t="n">
-        <v>1286.014758412231</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="X17" t="n">
-        <v>874.2947595799785</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="Y17" t="n">
-        <v>468.9574895348688</v>
+        <v>1306.392598485887</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I18" t="n">
         <v>88.30073447494337</v>
       </c>
       <c r="J18" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K18" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.8022533579883</v>
+        <v>528.7217556585067</v>
       </c>
       <c r="C19" t="n">
-        <v>278.8296902369043</v>
+        <v>517.522058255956</v>
       </c>
       <c r="D19" t="n">
-        <v>278.8296902369043</v>
+        <v>517.522058255956</v>
       </c>
       <c r="E19" t="n">
-        <v>278.8296902369043</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="F19" t="n">
-        <v>106.9679160114647</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G19" t="n">
-        <v>43.83330772426899</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J19" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K19" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L19" t="n">
-        <v>985.0293102399839</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M19" t="n">
-        <v>1140.67697138283</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N19" t="n">
-        <v>1258.082955204228</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O19" t="n">
-        <v>1740.927831326519</v>
+        <v>1777.066450959798</v>
       </c>
       <c r="P19" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T19" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U19" t="n">
-        <v>1666.438758153965</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V19" t="n">
-        <v>1384.727290761994</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W19" t="n">
-        <v>1109.874886934507</v>
+        <v>961.4516209247672</v>
       </c>
       <c r="X19" t="n">
-        <v>867.3109903803119</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.9682220700539</v>
+        <v>718.8877243705723</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>896.7109775631113</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C20" t="n">
-        <v>469.8102475764114</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D20" t="n">
-        <v>469.8102475764114</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E20" t="n">
-        <v>43.83330772426899</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F20" t="n">
         <v>43.83330772426899</v>
@@ -5749,16 +5749,16 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037502</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050667</v>
       </c>
       <c r="M20" t="n">
         <v>1043.801082832444</v>
@@ -5779,25 +5779,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T20" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.616610732004</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V20" t="n">
-        <v>2133.616610732004</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W20" t="n">
-        <v>2133.616610732004</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X20" t="n">
-        <v>1721.896611899751</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="Y20" t="n">
-        <v>1316.559341854641</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J21" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K21" t="n">
-        <v>320.938184101358</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L21" t="n">
-        <v>532.1149872941039</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M21" t="n">
-        <v>877.2524036743005</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N21" t="n">
         <v>1135.778278085548</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>450.8022533579883</v>
+        <v>302.3789873482492</v>
       </c>
       <c r="C22" t="n">
-        <v>278.8296902369043</v>
+        <v>130.4064242271652</v>
       </c>
       <c r="D22" t="n">
-        <v>278.8296902369043</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="E22" t="n">
-        <v>209.1705179376014</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F22" t="n">
-        <v>209.1705179376014</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G22" t="n">
         <v>43.83330772426899</v>
@@ -5910,52 +5910,52 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J22" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K22" t="n">
-        <v>249.0354163844683</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L22" t="n">
-        <v>361.3578075347969</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M22" t="n">
-        <v>893.8509716941071</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N22" t="n">
-        <v>1409.289878357386</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O22" t="n">
-        <v>1892.134754479676</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T22" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U22" t="n">
-        <v>1666.438758153965</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V22" t="n">
-        <v>1384.727290761994</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W22" t="n">
-        <v>1109.874886934507</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X22" t="n">
-        <v>867.3109903803119</v>
+        <v>718.8877243705728</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.9682220700539</v>
+        <v>492.5449560603148</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>894.0266585259686</v>
+        <v>2021.997028481101</v>
       </c>
       <c r="C23" t="n">
-        <v>467.1259285392687</v>
+        <v>1595.096298494401</v>
       </c>
       <c r="D23" t="n">
-        <v>43.83330772426898</v>
+        <v>1171.803677679402</v>
       </c>
       <c r="E23" t="n">
-        <v>43.83330772426898</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F23" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G23" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832444</v>
@@ -6007,10 +6007,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R23" t="n">
         <v>2191.665386213449</v>
@@ -6019,22 +6019,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T23" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U23" t="n">
-        <v>1663.882013359638</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V23" t="n">
-        <v>1306.392598485887</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W23" t="n">
-        <v>1305.746657358221</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X23" t="n">
-        <v>894.0266585259686</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="Y23" t="n">
-        <v>894.0266585259686</v>
+        <v>2134.022630614366</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
         <v>64.84342863053153</v>
@@ -6071,22 +6071,22 @@
         <v>146.0262857709435</v>
       </c>
       <c r="K24" t="n">
-        <v>297.4808782569462</v>
+        <v>297.4808782569461</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496921</v>
+        <v>508.6576814496919</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873041</v>
+        <v>758.2365412873039</v>
       </c>
       <c r="N24" t="n">
         <v>1016.762415698551</v>
       </c>
       <c r="O24" t="n">
-        <v>1249.652366935845</v>
+        <v>1249.652366935844</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q24" t="n">
         <v>1772.632401645602</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>450.8022533579878</v>
+        <v>492.5449560603148</v>
       </c>
       <c r="C25" t="n">
-        <v>278.8296902369038</v>
+        <v>492.5449560603148</v>
       </c>
       <c r="D25" t="n">
-        <v>278.8296902369038</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="E25" t="n">
-        <v>215.6950819497086</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F25" t="n">
-        <v>43.83330772426898</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G25" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>381.6345055669481</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L25" t="n">
-        <v>870.3457903084417</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M25" t="n">
-        <v>989.30347400493</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.709457826329</v>
+        <v>1484.411782129533</v>
       </c>
       <c r="O25" t="n">
         <v>1589.554333948619</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1666.438758153964</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V25" t="n">
-        <v>1384.727290761993</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W25" t="n">
-        <v>1109.874886934506</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X25" t="n">
-        <v>867.3109903803114</v>
+        <v>718.8877243705728</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.9682220700535</v>
+        <v>492.5449560603148</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320.7025560166592</v>
+        <v>1320.003598378111</v>
       </c>
       <c r="C26" t="n">
-        <v>320.7025560166592</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="D26" t="n">
-        <v>320.7025560166592</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H26" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037504</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804933</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050668</v>
       </c>
       <c r="M26" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N26" t="n">
         <v>1365.479726947678</v>
@@ -6256,22 +6256,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U26" t="n">
-        <v>1663.882013359638</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V26" t="n">
-        <v>1306.392598485888</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W26" t="n">
-        <v>910.0012487862346</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X26" t="n">
-        <v>726.0398260617688</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="Y26" t="n">
-        <v>320.7025560166592</v>
+        <v>1728.685360569257</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J27" t="n">
-        <v>370.4976484428457</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K27" t="n">
-        <v>521.9522409288484</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L27" t="n">
-        <v>733.1290441215942</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7079039592063</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N27" t="n">
         <v>1241.233778370454</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>765.6027702597469</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C28" t="n">
-        <v>765.6027702597469</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D28" t="n">
-        <v>754.9681603564982</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E28" t="n">
-        <v>588.7599545093517</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F28" t="n">
-        <v>416.8981802839122</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G28" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I28" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J28" t="n">
-        <v>87.13587819270248</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K28" t="n">
-        <v>171.1136997362474</v>
+        <v>418.3963088502694</v>
       </c>
       <c r="L28" t="n">
-        <v>283.436090886576</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M28" t="n">
-        <v>815.9292550458862</v>
+        <v>1026.065277288251</v>
       </c>
       <c r="N28" t="n">
-        <v>1331.368161709165</v>
+        <v>1143.47126110965</v>
       </c>
       <c r="O28" t="n">
-        <v>1814.213037831455</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P28" t="n">
         <v>1989.180585230913</v>
@@ -6408,28 +6408,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.8763562978</v>
+        <v>2122.847895973299</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991379</v>
+        <v>1883.438429666877</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.332610191271</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.6211427993</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718126</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X28" t="n">
-        <v>955.7687389718126</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.7687389718126</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1105.015618204801</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="C29" t="n">
-        <v>1105.015618204801</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="D29" t="n">
-        <v>681.7229973898011</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="E29" t="n">
-        <v>255.7460575376587</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F29" t="n">
-        <v>255.7460575376587</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G29" t="n">
-        <v>255.7460575376587</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H29" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037498</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O29" t="n">
         <v>1667.064768900565</v>
@@ -6490,25 +6490,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T29" t="n">
-        <v>1922.072887082163</v>
+        <v>1979.715642681246</v>
       </c>
       <c r="U29" t="n">
-        <v>1922.072887082163</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="V29" t="n">
-        <v>1922.072887082163</v>
+        <v>1364.035354084971</v>
       </c>
       <c r="W29" t="n">
-        <v>1922.072887082163</v>
+        <v>967.6440043853177</v>
       </c>
       <c r="X29" t="n">
-        <v>1510.35288824991</v>
+        <v>726.0398260617688</v>
       </c>
       <c r="Y29" t="n">
-        <v>1105.015618204801</v>
+        <v>320.7025560166592</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L30" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M30" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N30" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.3523502088651</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="C31" t="n">
-        <v>612.3797870877811</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="D31" t="n">
-        <v>449.0630142145518</v>
+        <v>381.903287796855</v>
       </c>
       <c r="E31" t="n">
-        <v>282.8548083674053</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F31" t="n">
-        <v>110.9930341419658</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G31" t="n">
-        <v>110.9930341419658</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H31" t="n">
-        <v>110.9930341419658</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I31" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K31" t="n">
-        <v>249.0354163844683</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>737.7467011259619</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M31" t="n">
-        <v>1270.239865285272</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.678771948551</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O31" t="n">
-        <v>1902.310538521927</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
@@ -6648,25 +6648,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S31" t="n">
-        <v>2037.559238250755</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T31" t="n">
-        <v>2037.559238250755</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U31" t="n">
-        <v>1757.424958450647</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.713491058676</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W31" t="n">
-        <v>1200.861087231189</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X31" t="n">
-        <v>1200.861087231189</v>
+        <v>872.9938723332669</v>
       </c>
       <c r="Y31" t="n">
-        <v>974.5183189209308</v>
+        <v>646.651104023009</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1173.580225855502</v>
+        <v>1464.111758059589</v>
       </c>
       <c r="C32" t="n">
-        <v>746.6794958688016</v>
+        <v>1037.211028072889</v>
       </c>
       <c r="D32" t="n">
-        <v>746.6794958688016</v>
+        <v>1037.211028072889</v>
       </c>
       <c r="E32" t="n">
-        <v>320.7025560166592</v>
+        <v>1037.211028072889</v>
       </c>
       <c r="F32" t="n">
-        <v>320.7025560166592</v>
+        <v>612.0868462622891</v>
       </c>
       <c r="G32" t="n">
-        <v>320.7025560166592</v>
+        <v>209.7982298650247</v>
       </c>
       <c r="H32" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037504</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804933</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050668</v>
       </c>
       <c r="M32" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N32" t="n">
         <v>1365.479726947678</v>
@@ -6733,19 +6733,19 @@
         <v>2134.022630614366</v>
       </c>
       <c r="U32" t="n">
-        <v>2134.022630614366</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V32" t="n">
-        <v>1981.691574387407</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W32" t="n">
-        <v>1585.300224687754</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="X32" t="n">
-        <v>1173.580225855502</v>
+        <v>1464.111758059589</v>
       </c>
       <c r="Y32" t="n">
-        <v>1173.580225855502</v>
+        <v>1464.111758059589</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0421481579399</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K33" t="n">
-        <v>416.4967406439425</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L33" t="n">
-        <v>627.6735438366884</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M33" t="n">
-        <v>877.2524036743005</v>
+        <v>781.6938471317158</v>
       </c>
       <c r="N33" t="n">
-        <v>1135.778278085548</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O33" t="n">
-        <v>1368.668229322841</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P33" t="n">
-        <v>1552.441323867022</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q33" t="n">
         <v>1667.176901360697</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.6676450707926</v>
+        <v>954.6387258917105</v>
       </c>
       <c r="C34" t="n">
-        <v>215.6950819497086</v>
+        <v>782.6661627706264</v>
       </c>
       <c r="D34" t="n">
-        <v>215.6950819497086</v>
+        <v>619.3493898973971</v>
       </c>
       <c r="E34" t="n">
-        <v>215.6950819497086</v>
+        <v>453.1411840502507</v>
       </c>
       <c r="F34" t="n">
-        <v>43.83330772426899</v>
+        <v>281.2794098248111</v>
       </c>
       <c r="G34" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I34" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9682963977664</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K34" t="n">
-        <v>432.2287270553334</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L34" t="n">
-        <v>920.940011796827</v>
+        <v>283.4360908865759</v>
       </c>
       <c r="M34" t="n">
-        <v>1453.433175956137</v>
+        <v>815.929255045886</v>
       </c>
       <c r="N34" t="n">
-        <v>1570.839159777536</v>
+        <v>1331.368161709165</v>
       </c>
       <c r="O34" t="n">
-        <v>2053.684035899826</v>
+        <v>1814.213037831455</v>
       </c>
       <c r="P34" t="n">
         <v>2140.554082608812</v>
@@ -6885,25 +6885,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S34" t="n">
-        <v>2122.847895973299</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T34" t="n">
-        <v>1883.438429666877</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.304149866769</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V34" t="n">
-        <v>1321.592682474798</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.740278647311</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="X34" t="n">
-        <v>804.1763820931162</v>
+        <v>1180.981494201968</v>
       </c>
       <c r="Y34" t="n">
-        <v>577.8336137828583</v>
+        <v>954.6387258917105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1559.867278389716</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="C35" t="n">
-        <v>1132.966548403016</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="D35" t="n">
-        <v>709.6739275880166</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="E35" t="n">
-        <v>320.7025560166592</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="F35" t="n">
-        <v>320.7025560166592</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7025560166592</v>
+        <v>153.6353891558005</v>
       </c>
       <c r="H35" t="n">
         <v>43.83330772426899</v>
@@ -6937,19 +6937,19 @@
         <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M35" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N35" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O35" t="n">
         <v>1667.064768900565</v>
@@ -6970,19 +6970,19 @@
         <v>1979.715642681246</v>
       </c>
       <c r="U35" t="n">
-        <v>1979.715642681246</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="V35" t="n">
-        <v>1979.715642681246</v>
+        <v>1364.035354084971</v>
       </c>
       <c r="W35" t="n">
-        <v>1979.715642681246</v>
+        <v>967.6440043853177</v>
       </c>
       <c r="X35" t="n">
-        <v>1979.715642681246</v>
+        <v>555.9240055530649</v>
       </c>
       <c r="Y35" t="n">
-        <v>1979.715642681246</v>
+        <v>555.9240055530649</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0421481579399</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K36" t="n">
-        <v>416.4967406439425</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L36" t="n">
-        <v>627.6735438366884</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M36" t="n">
-        <v>877.2524036743005</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N36" t="n">
         <v>1135.778278085548</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>693.3661499121831</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="C37" t="n">
-        <v>521.3935867910991</v>
+        <v>453.1411840502507</v>
       </c>
       <c r="D37" t="n">
-        <v>521.3935867910991</v>
+        <v>453.1411840502507</v>
       </c>
       <c r="E37" t="n">
-        <v>355.1853809439526</v>
+        <v>453.1411840502507</v>
       </c>
       <c r="F37" t="n">
-        <v>183.323606718513</v>
+        <v>281.2794098248111</v>
       </c>
       <c r="G37" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H37" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I37" t="n">
         <v>43.83330772426899</v>
@@ -7119,28 +7119,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T37" t="n">
-        <v>1946.573037954073</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U37" t="n">
-        <v>1666.438758153965</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V37" t="n">
-        <v>1384.727290761994</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W37" t="n">
-        <v>1109.874886934507</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X37" t="n">
-        <v>1109.874886934507</v>
+        <v>872.9938723332669</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.5321186242488</v>
+        <v>646.651104023009</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>745.826737827259</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="C38" t="n">
-        <v>745.826737827259</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="D38" t="n">
-        <v>745.826737827259</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E38" t="n">
-        <v>745.826737827259</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F38" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G38" t="n">
         <v>320.7025560166592</v>
@@ -7174,19 +7174,19 @@
         <v>87.10761271643833</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O38" t="n">
         <v>1667.064768900565</v>
@@ -7201,25 +7201,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T38" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U38" t="n">
-        <v>2191.665386213449</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V38" t="n">
-        <v>2191.665386213449</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W38" t="n">
-        <v>1795.274036513796</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="X38" t="n">
-        <v>1383.554037681544</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="Y38" t="n">
-        <v>978.2167676364339</v>
+        <v>1148.115354224523</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I39" t="n">
-        <v>88.30073447494337</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0421481579399</v>
+        <v>146.0262857709435</v>
       </c>
       <c r="K39" t="n">
-        <v>416.4967406439425</v>
+        <v>297.4808782569461</v>
       </c>
       <c r="L39" t="n">
-        <v>627.6735438366884</v>
+        <v>508.6576814496919</v>
       </c>
       <c r="M39" t="n">
-        <v>877.2524036743005</v>
+        <v>758.2365412873039</v>
       </c>
       <c r="N39" t="n">
-        <v>1135.778278085548</v>
+        <v>1016.762415698551</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.668229322841</v>
+        <v>1249.652366935844</v>
       </c>
       <c r="P39" t="n">
         <v>1552.441323867022</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>459.7765369580022</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C40" t="n">
-        <v>287.8039738369183</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D40" t="n">
-        <v>287.8039738369183</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E40" t="n">
-        <v>287.8039738369183</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H40" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I40" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>171.1136997362474</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L40" t="n">
-        <v>283.436090886576</v>
+        <v>737.7467011259619</v>
       </c>
       <c r="M40" t="n">
-        <v>742.6440485409494</v>
+        <v>856.7043848224502</v>
       </c>
       <c r="N40" t="n">
         <v>1258.082955204228</v>
@@ -7356,28 +7356,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R40" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T40" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.413041753979</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V40" t="n">
-        <v>1393.701574362008</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W40" t="n">
-        <v>1118.849170534521</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X40" t="n">
-        <v>876.2852739803259</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y40" t="n">
-        <v>649.9425056700679</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>362.536479040158</v>
+        <v>846.8247444822754</v>
       </c>
       <c r="C41" t="n">
-        <v>362.536479040158</v>
+        <v>846.8247444822754</v>
       </c>
       <c r="D41" t="n">
-        <v>362.536479040158</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E41" t="n">
-        <v>362.536479040158</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426898</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G41" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H41" t="n">
         <v>43.83330772426898</v>
@@ -7411,13 +7411,13 @@
         <v>87.10761271643844</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050661</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832444</v>
@@ -7438,25 +7438,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S41" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U41" t="n">
-        <v>1933.474512490924</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V41" t="n">
-        <v>1575.985097617174</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="W41" t="n">
-        <v>1179.59374791752</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="X41" t="n">
-        <v>767.8737490852677</v>
+        <v>1252.162014527385</v>
       </c>
       <c r="Y41" t="n">
-        <v>362.536479040158</v>
+        <v>846.8247444822754</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>265.0421481579399</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>416.4967406439425</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>627.6735438366884</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>877.2524036743005</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
         <v>1135.778278085548</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.7325176304357</v>
+        <v>577.2313911757358</v>
       </c>
       <c r="C43" t="n">
-        <v>588.7599545093517</v>
+        <v>405.2588280546518</v>
       </c>
       <c r="D43" t="n">
-        <v>588.7599545093517</v>
+        <v>405.2588280546518</v>
       </c>
       <c r="E43" t="n">
-        <v>588.7599545093517</v>
+        <v>239.0506222075053</v>
       </c>
       <c r="F43" t="n">
-        <v>416.8981802839121</v>
+        <v>67.18884798206574</v>
       </c>
       <c r="G43" t="n">
-        <v>251.5609700705797</v>
+        <v>67.18884798206574</v>
       </c>
       <c r="H43" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I43" t="n">
         <v>43.83330772426898</v>
       </c>
       <c r="J43" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K43" t="n">
-        <v>496.3180254984903</v>
+        <v>381.6345055669481</v>
       </c>
       <c r="L43" t="n">
-        <v>608.6404166488189</v>
+        <v>870.3457903084417</v>
       </c>
       <c r="M43" t="n">
-        <v>1141.133580808129</v>
+        <v>989.30347400493</v>
       </c>
       <c r="N43" t="n">
-        <v>1570.839159777536</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O43" t="n">
-        <v>2053.684035899826</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P43" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S43" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.621142799299</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W43" t="n">
-        <v>987.0752859406937</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="X43" t="n">
-        <v>987.0752859406937</v>
+        <v>993.7401281980593</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7325176304357</v>
+        <v>767.3973598878014</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1171.803677679402</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C44" t="n">
-        <v>1171.803677679402</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D44" t="n">
-        <v>1171.803677679402</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E44" t="n">
-        <v>745.826737827259</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F44" t="n">
-        <v>320.7025560166591</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7025560166591</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H44" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643881</v>
       </c>
       <c r="J44" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804928</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050663</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
@@ -7663,37 +7663,37 @@
         <v>1365.479726947678</v>
       </c>
       <c r="O44" t="n">
-        <v>1667.064768900566</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P44" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R44" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2134.022630614367</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>1922.072887082164</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U44" t="n">
-        <v>1663.882013359639</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V44" t="n">
-        <v>1306.392598485888</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="W44" t="n">
-        <v>1171.803677679402</v>
+        <v>1267.490663659985</v>
       </c>
       <c r="X44" t="n">
-        <v>1171.803677679402</v>
+        <v>1128.328442459033</v>
       </c>
       <c r="Y44" t="n">
-        <v>1171.803677679402</v>
+        <v>722.9911724139236</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I45" t="n">
-        <v>88.3007344749434</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0421481579398</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K45" t="n">
-        <v>416.4967406439424</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L45" t="n">
-        <v>627.6735438366883</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M45" t="n">
-        <v>877.2524036743005</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N45" t="n">
         <v>1135.778278085548</v>
@@ -7794,43 +7794,43 @@
         <v>215.6950819497086</v>
       </c>
       <c r="F46" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G46" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H46" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I46" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J46" t="n">
-        <v>87.13587819270248</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K46" t="n">
-        <v>345.8013494073303</v>
+        <v>411.8981285166562</v>
       </c>
       <c r="L46" t="n">
-        <v>834.5126341488238</v>
+        <v>900.6094132581497</v>
       </c>
       <c r="M46" t="n">
-        <v>1367.005798308134</v>
+        <v>1433.10257741746</v>
       </c>
       <c r="N46" t="n">
-        <v>1484.411782129533</v>
+        <v>1948.541484080739</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.55433394862</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q46" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S46" t="n">
         <v>2122.847895973299</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>96.52379448745904</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>228.1537550505096</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>115.7693879743214</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>93.90673216551821</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276854</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0445018459499</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>37.06058327914883</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>279.4117019596235</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>96.52379448745901</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>241.8898970387585</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>10.2785697396471</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>226.738750173639</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>133.9384739216968</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>265.6755599713751</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>226.7387501736386</v>
+        <v>203.0445018459501</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>344.3843646665478</v>
       </c>
       <c r="P28" t="n">
-        <v>88.98737443481987</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387585</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>11.60526742857454</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>96.52379448745911</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>96.52379448745955</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>13.97213960107472</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>241.8898970387584</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>96.52379448745911</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>96.52379448745911</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>120.2180428151483</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>343.6871454120051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>286.8409965256358</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>96.52379448745911</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>212.6472786168694</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4541365131391</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>96.52379448745896</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.4521713849321</v>
+        <v>243.2165947276856</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11466,16 +11466,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>282.13732477748</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>165.3964951922501</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.44551640995485</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S13" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>50.46420342092139</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>124.692621675057</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>299.2271070018471</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.85530023157253</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>71.2073477093106</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>258.9554088298645</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>105.3568003897631</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>159.165137061348</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>101.1805759068753</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>71.38780296833761</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.2657302332918</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>198.1406772586682</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>22.5968969225313</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>75.97621980662979</v>
       </c>
       <c r="E22" t="n">
-        <v>95.58354321236511</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
         <v>134.26258275451</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>304.7445345366822</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>391.7879544862674</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>86.79329712585837</v>
       </c>
       <c r="E25" t="n">
-        <v>102.0428615843517</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>11.05493607938052</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24460,7 +24460,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>225.4809903467092</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.1553413402808</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.43577114531801</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,7 +24697,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
-        <v>64.30693349421048</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>168.4146623036169</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>87.84757610554955</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
-        <v>4.899673814817817</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>109.7952828901181</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>203.1067750603237</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S34" t="n">
-        <v>84.43577114531801</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>185.3689523438695</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>36.6355125979772</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>165.39649519225</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.9423257417874</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>25.58844210689745</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.5837511375315</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>235.7329643839059</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.884540764013821</v>
+        <v>84.43577114531797</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>296.4644582591814</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>105.3568003897636</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>111.1405978992912</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>30.99348149919268</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>259.1844046042348</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>269.8321998549884</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>84.43577114531756</v>
+        <v>84.43577114531845</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>311539.5524754283</v>
+        <v>311539.5524754284</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>311539.5524754284</v>
+        <v>311539.5524754283</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>311539.5524754284</v>
+        <v>311539.5524754283</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>311539.5524754284</v>
+        <v>311539.5524754283</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>311539.5524754283</v>
+        <v>311539.5524754284</v>
       </c>
     </row>
     <row r="11">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>530725.4205566851</v>
+      </c>
+      <c r="C2" t="n">
+        <v>530725.420556685</v>
+      </c>
+      <c r="D2" t="n">
         <v>530725.4205566852</v>
-      </c>
-      <c r="C2" t="n">
-        <v>530725.4205566853</v>
-      </c>
-      <c r="D2" t="n">
-        <v>530725.4205566853</v>
       </c>
       <c r="E2" t="n">
         <v>320774.1550239612</v>
       </c>
       <c r="F2" t="n">
+        <v>320774.1550239612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>320774.1550239612</v>
+      </c>
+      <c r="H2" t="n">
+        <v>320774.1550239612</v>
+      </c>
+      <c r="I2" t="n">
         <v>320774.1550239613</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>320774.1550239613</v>
-      </c>
-      <c r="H2" t="n">
-        <v>320774.1550239614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>320774.155023961</v>
-      </c>
-      <c r="J2" t="n">
-        <v>320774.1550239614</v>
       </c>
       <c r="K2" t="n">
         <v>320774.1550239613</v>
       </c>
       <c r="L2" t="n">
-        <v>320774.1550239613</v>
+        <v>320774.1550239612</v>
       </c>
       <c r="M2" t="n">
         <v>320774.1550239613</v>
@@ -26352,7 +26352,7 @@
         <v>320774.1550239612</v>
       </c>
       <c r="O2" t="n">
-        <v>320774.1550239612</v>
+        <v>320774.155023961</v>
       </c>
       <c r="P2" t="n">
         <v>320774.1550239612</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569272.4739113377</v>
+        <v>569272.4739113376</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>327481.7256441435</v>
       </c>
       <c r="E4" t="n">
-        <v>25894.6745047393</v>
+        <v>25894.67450473932</v>
       </c>
       <c r="F4" t="n">
+        <v>25894.67450473931</v>
+      </c>
+      <c r="G4" t="n">
         <v>25894.67450473932</v>
       </c>
-      <c r="G4" t="n">
-        <v>25894.67450473931</v>
-      </c>
       <c r="H4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473932</v>
       </c>
       <c r="I4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473936</v>
       </c>
       <c r="J4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473936</v>
       </c>
       <c r="K4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473932</v>
       </c>
       <c r="L4" t="n">
+        <v>25894.67450473936</v>
+      </c>
+      <c r="M4" t="n">
         <v>25894.67450473932</v>
       </c>
-      <c r="M4" t="n">
-        <v>25894.67450473931</v>
-      </c>
       <c r="N4" t="n">
-        <v>25894.67450473932</v>
+        <v>25894.67450473933</v>
       </c>
       <c r="O4" t="n">
         <v>25894.67450473931</v>
       </c>
       <c r="P4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473932</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="I5" t="n">
         <v>44321.17942781076</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="M5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="N5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="O5" t="n">
         <v>44321.17942781076</v>
       </c>
       <c r="P5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169616.0949125417</v>
+        <v>169594.3812710452</v>
       </c>
       <c r="C6" t="n">
-        <v>169616.0949125418</v>
+        <v>169594.3812710451</v>
       </c>
       <c r="D6" t="n">
-        <v>169616.0949125418</v>
+        <v>169594.3812710453</v>
       </c>
       <c r="E6" t="n">
-        <v>-318714.1728199265</v>
+        <v>-319303.322314214</v>
       </c>
       <c r="F6" t="n">
-        <v>250558.3010914112</v>
+        <v>249969.1515971237</v>
       </c>
       <c r="G6" t="n">
-        <v>250558.3010914112</v>
+        <v>249969.1515971236</v>
       </c>
       <c r="H6" t="n">
-        <v>250558.3010914114</v>
+        <v>249969.1515971236</v>
       </c>
       <c r="I6" t="n">
-        <v>250558.301091411</v>
+        <v>249969.1515971237</v>
       </c>
       <c r="J6" t="n">
-        <v>250558.3010914113</v>
+        <v>249969.1515971237</v>
       </c>
       <c r="K6" t="n">
-        <v>250558.3010914113</v>
+        <v>249969.1515971237</v>
       </c>
       <c r="L6" t="n">
-        <v>250558.3010914112</v>
+        <v>249969.1515971236</v>
       </c>
       <c r="M6" t="n">
-        <v>114015.3558649271</v>
+        <v>113426.2063706397</v>
       </c>
       <c r="N6" t="n">
-        <v>250558.3010914111</v>
+        <v>249969.1515971236</v>
       </c>
       <c r="O6" t="n">
-        <v>250558.3010914112</v>
+        <v>249969.1515971235</v>
       </c>
       <c r="P6" t="n">
-        <v>250558.3010914112</v>
+        <v>249969.1515971236</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="F3" t="n">
         <v>504.9479613470797</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="H3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="I3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="O3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="P3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
     </row>
     <row r="4">
@@ -26801,16 +26801,16 @@
         <v>547.9163465533624</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="H4" t="n">
         <v>547.9163465533624</v>
       </c>
       <c r="I4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
         <v>547.9163465533624</v>
@@ -26831,7 +26831,7 @@
         <v>547.9163465533622</v>
       </c>
       <c r="P4" t="n">
-        <v>547.9163465533625</v>
+        <v>547.9163465533622</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I11" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J11" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K11" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M11" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N11" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O11" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P11" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q11" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U11" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H12" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I12" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J12" t="n">
         <v>102.6140003337495</v>
@@ -31846,13 +31846,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L12" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M12" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
         <v>258.4142647093871</v>
@@ -31861,19 +31861,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R12" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S12" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T12" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I13" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J13" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K13" t="n">
         <v>105.7907368199291</v>
@@ -31940,19 +31940,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R13" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S13" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T13" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K17" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M17" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N17" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q17" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U17" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H18" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
         <v>102.6140003337495</v>
@@ -32320,13 +32320,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N18" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
         <v>258.4142647093871</v>
@@ -32335,19 +32335,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S18" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S19" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I20" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J20" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K20" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L20" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M20" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N20" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O20" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P20" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q20" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R20" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S20" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T20" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U20" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H21" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I21" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J21" t="n">
         <v>102.6140003337495</v>
@@ -32557,13 +32557,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L21" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M21" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N21" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O21" t="n">
         <v>258.4142647093871</v>
@@ -32572,19 +32572,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R21" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S21" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T21" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H22" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I22" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J22" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K22" t="n">
         <v>105.7907368199291</v>
@@ -32651,19 +32651,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R22" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S22" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T22" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,43 +32706,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J23" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K23" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L23" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M23" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N23" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O23" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P23" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q23" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S23" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T23" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U23" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H24" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J24" t="n">
         <v>102.6140003337495</v>
@@ -32794,13 +32794,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L24" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N24" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O24" t="n">
         <v>258.4142647093871</v>
@@ -32809,19 +32809,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S24" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
@@ -32888,19 +32888,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S25" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,43 +32943,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J26" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L26" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M26" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N26" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O26" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P26" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q26" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S26" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T26" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H27" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J27" t="n">
         <v>102.6140003337495</v>
@@ -33031,13 +33031,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L27" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N27" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O27" t="n">
         <v>258.4142647093871</v>
@@ -33046,19 +33046,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S27" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
@@ -33125,19 +33125,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S28" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J29" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K29" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L29" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M29" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N29" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O29" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P29" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q29" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S29" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T29" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U29" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H30" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J30" t="n">
         <v>102.6140003337495</v>
@@ -33268,13 +33268,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L30" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N30" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O30" t="n">
         <v>258.4142647093871</v>
@@ -33283,19 +33283,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S30" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
@@ -33362,19 +33362,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S31" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J32" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K32" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L32" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M32" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N32" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O32" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P32" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q32" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S32" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T32" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U32" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H33" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J33" t="n">
         <v>102.6140003337495</v>
@@ -33505,13 +33505,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L33" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N33" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O33" t="n">
         <v>258.4142647093871</v>
@@ -33520,19 +33520,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S33" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
@@ -33599,19 +33599,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S34" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,43 +33654,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J35" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K35" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L35" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M35" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N35" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O35" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P35" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q35" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S35" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T35" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U35" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H36" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J36" t="n">
         <v>102.6140003337495</v>
@@ -33742,13 +33742,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L36" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N36" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O36" t="n">
         <v>258.4142647093871</v>
@@ -33757,19 +33757,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q36" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S36" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
@@ -33836,19 +33836,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S37" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I38" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J38" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K38" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L38" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M38" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N38" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O38" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P38" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q38" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S38" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T38" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U38" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H39" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J39" t="n">
         <v>102.6140003337495</v>
@@ -33979,13 +33979,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L39" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M39" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N39" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O39" t="n">
         <v>258.4142647093871</v>
@@ -33994,19 +33994,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R39" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S39" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I40" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
@@ -34073,19 +34073,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R40" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S40" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T40" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I41" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J41" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K41" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L41" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M41" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N41" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O41" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P41" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q41" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R41" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S41" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T41" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U41" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H42" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I42" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J42" t="n">
         <v>102.6140003337495</v>
@@ -34216,13 +34216,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L42" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M42" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N42" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O42" t="n">
         <v>258.4142647093871</v>
@@ -34231,19 +34231,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q42" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R42" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S42" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T42" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H43" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I43" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J43" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K43" t="n">
         <v>105.7907368199291</v>
@@ -34310,19 +34310,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R43" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S43" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T43" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.029941553154088</v>
+        <v>2.029941553154087</v>
       </c>
       <c r="H44" t="n">
-        <v>20.78913893123931</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I44" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797343</v>
       </c>
       <c r="J44" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K44" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L44" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M44" t="n">
-        <v>356.439974745268</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N44" t="n">
-        <v>362.2075461831671</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O44" t="n">
-        <v>342.0223148639911</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P44" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.2108508981687</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R44" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S44" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T44" t="n">
-        <v>8.886069148932025</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U44" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H45" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I45" t="n">
-        <v>37.39473109976016</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J45" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K45" t="n">
-        <v>175.3836706878815</v>
+        <v>175.3836706878814</v>
       </c>
       <c r="L45" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M45" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N45" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O45" t="n">
         <v>258.4142647093871</v>
       </c>
       <c r="P45" t="n">
-        <v>207.400229633294</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R45" t="n">
-        <v>67.43437113989872</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S45" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T45" t="n">
-        <v>4.377803551678926</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9105618975111273</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H46" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I46" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J46" t="n">
-        <v>64.3767261540367</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K46" t="n">
         <v>105.7907368199291</v>
@@ -34547,19 +34547,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.24714216340904</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R46" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S46" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T46" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J11" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K11" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L11" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M11" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N11" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O11" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P11" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L12" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N12" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O12" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P12" t="n">
-        <v>282.1531829159243</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R12" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K13" t="n">
         <v>334.6064956137041</v>
       </c>
       <c r="L13" t="n">
-        <v>341.6107158084172</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>537.8718829892022</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N13" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O13" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P13" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.5301020025625</v>
+        <v>167.3969673729454</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
@@ -35746,10 +35746,10 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q15" t="n">
-        <v>342.6332728945224</v>
+        <v>115.8945227208839</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>43.73997017013482</v>
       </c>
       <c r="K16" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>214.0660086266175</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N16" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247429</v>
       </c>
       <c r="P16" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q16" t="n">
         <v>51.62757939862408</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J17" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M17" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N17" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K18" t="n">
-        <v>356.028938700498</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L18" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N18" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K19" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L19" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>157.2198597402482</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N19" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>367.1592238878918</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.62757939862408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J20" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K20" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L20" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M20" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N20" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O20" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P20" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R20" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6236529092894</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N21" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K22" t="n">
-        <v>84.82608236721713</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4569607579077</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M22" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
         <v>520.6453602659385</v>
@@ -36296,10 +36296,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>98.02609166791544</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J23" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L23" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M23" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N23" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O23" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079678</v>
       </c>
       <c r="P23" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041615</v>
+        <v>82.00288600041613</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M24" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N24" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
-        <v>185.6293884284653</v>
+        <v>412.3681386021042</v>
       </c>
       <c r="Q24" t="n">
-        <v>342.6332728945224</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>218.764556288914</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L25" t="n">
         <v>493.647762365145</v>
@@ -36527,10 +36527,10 @@
         <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
-        <v>118.5919028498979</v>
+        <v>384.267462821273</v>
       </c>
       <c r="O25" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P25" t="n">
         <v>403.6628800831245</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J26" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114262</v>
       </c>
       <c r="K26" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L26" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M26" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N26" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O26" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P26" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>308.7416361740547</v>
+        <v>285.0473878463662</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M27" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N27" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O27" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q27" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.73997017013482</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K28" t="n">
-        <v>84.82608236721713</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
-        <v>537.8718829892022</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N28" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O28" t="n">
-        <v>487.7220970932224</v>
+        <v>450.5889624636052</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7348963630882</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q28" t="n">
         <v>204.5301020025625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J29" t="n">
-        <v>142.8687924114256</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L29" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M29" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N29" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O29" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P29" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0486523885334</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M30" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N30" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O30" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q30" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K31" t="n">
-        <v>84.82608236721713</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L31" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M31" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N31" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>117.809865225632</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>87.74752192826834</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J32" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114262</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L32" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M32" t="n">
-        <v>319.0087118458363</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N32" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O32" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P32" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>178.5266804878753</v>
+        <v>82.00288600041613</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M33" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N33" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O33" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.8945227208839</v>
+        <v>212.4183172083434</v>
       </c>
       <c r="R33" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.71210977120954</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K34" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L34" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M34" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N34" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O34" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P34" t="n">
-        <v>87.74752192826834</v>
+        <v>329.6374189670267</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.62757939862408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J35" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L35" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M35" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N35" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O35" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P35" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>178.5266804878753</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M36" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N36" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O36" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q36" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J38" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L38" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M38" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N38" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O38" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P38" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.91659267744888</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J39" t="n">
-        <v>178.5266804878753</v>
+        <v>82.00288600041613</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M39" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N39" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
-        <v>185.6293884284653</v>
+        <v>305.8474312436135</v>
       </c>
       <c r="Q39" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>84.82608236721713</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
-        <v>463.8464218731044</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N40" t="n">
-        <v>520.6453602659385</v>
+        <v>405.4328993755337</v>
       </c>
       <c r="O40" t="n">
         <v>487.7220970932224</v>
@@ -37721,7 +37721,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.62757939862408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J41" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K41" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L41" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M41" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N41" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O41" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P41" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R41" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>178.5266804878753</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L42" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M42" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N42" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O42" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P42" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>334.6064956137041</v>
+        <v>297.4733609840865</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M43" t="n">
-        <v>537.8718829892022</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N43" t="n">
-        <v>434.046039363037</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O43" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
-        <v>87.74752192826834</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.62757939862408</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400993</v>
       </c>
       <c r="J44" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K44" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L44" t="n">
-        <v>282.0279592167411</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M44" t="n">
-        <v>319.0087118458362</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9279233487211</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O44" t="n">
-        <v>304.631355507967</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P44" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R44" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.91659267744889</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>178.5266804878751</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K45" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L45" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M45" t="n">
-        <v>252.0998584218305</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N45" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O45" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P45" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R45" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.73997017013484</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K46" t="n">
-        <v>261.2782537521493</v>
+        <v>328.0426770949027</v>
       </c>
       <c r="L46" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M46" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N46" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>106.2045977970575</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P46" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
